--- a/Excel/haryana_di.xlsx
+++ b/Excel/haryana_di.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RSSolar_API_Csharp\Rssolar_api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927C08B5-CE3E-47AB-888F-4276CBF7100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF44038E-1BB0-42D5-A58B-1D2F7DEDC160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06749088-779A-40A2-A2A4-6F6989068BF2}"/>
   </bookViews>
@@ -33,8 +33,7 @@
     <t>HARYANA ROLLING MILL PVT LTD.</t>
   </si>
   <si>
-    <t>ADDRESS  - Khasra No. - 1262 &amp; 1264/2  , Gram - Mohbhatha , Tehsil - 
-    Berla ,  Dist. - Bemetara , PIN - 491993</t>
+    <t>ADDRESS  - Khasra No. - 1262 &amp; 1264/2  , Gram - Mohbhatha , Tehsil - Berla ,  Dist. - Bemetara , PIN - 491993</t>
   </si>
 </sst>
 </file>
@@ -431,7 +430,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
